--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_8_20.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_8_20.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>782604.9702521216</v>
+        <v>743182.936387988</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>9989620.414365165</v>
+        <v>10087461.6383038</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6280343.233667349</v>
+        <v>5991951.281419028</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9611366.420709481</v>
+        <v>9730266.308720946</v>
       </c>
     </row>
     <row r="11">
@@ -667,10 +667,10 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>300.5669761248645</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>413.784170020795</v>
@@ -706,7 +706,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>47.25692362929748</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -721,13 +721,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -788,7 +788,7 @@
         <v>49.71123688229331</v>
       </c>
       <c r="S3" t="n">
-        <v>156.5912426325226</v>
+        <v>156.5912426325231</v>
       </c>
       <c r="T3" t="n">
         <v>196.8897623984489</v>
@@ -816,13 +816,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>6.390346842435148</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -831,7 +831,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -864,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -873,13 +873,13 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>94.63926978364057</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -904,16 +904,16 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>185.6425509600064</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -943,10 +943,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -955,13 +955,13 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>294.046469609198</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -1056,25 +1056,25 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>78.31629253725373</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>60.4453376112354</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923383</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1116,7 +1116,7 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1135,7 +1135,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1144,13 +1144,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>151.9313162448613</v>
@@ -1186,19 +1186,19 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>4.669905662784863</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>55.73071083106505</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1296,16 +1296,16 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>94.63926978364032</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1344,16 +1344,16 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>120.2570633735995</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1369,28 +1369,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>380.4780903101811</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>316.1831492269758</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H11" t="n">
-        <v>299.8862654257798</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,10 +1420,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>120.9327970537822</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -1432,7 +1432,7 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -1463,13 +1463,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>135.275240877313</v>
+        <v>134.9994691657081</v>
       </c>
       <c r="H12" t="n">
-        <v>92.26024958059011</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I12" t="n">
-        <v>18.18624318344743</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,16 +1496,16 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>0.1429098734107401</v>
       </c>
       <c r="S12" t="n">
-        <v>133.2658462320107</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T12" t="n">
-        <v>191.828123840699</v>
+        <v>190.7165703189231</v>
       </c>
       <c r="U12" t="n">
-        <v>225.8053112726921</v>
+        <v>225.7871683969286</v>
       </c>
       <c r="V12" t="n">
         <v>232.8005871494253</v>
@@ -1536,19 +1536,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>135.5753427036751</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
-        <v>146.8105729959039</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>103.3051669679944</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1578,16 +1578,16 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>181.4211934102667</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -1606,28 +1606,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>317.8977367051473</v>
       </c>
       <c r="E14" t="n">
-        <v>291.0483599532347</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>411.4371413535349</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>61.44749355031655</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1663,7 +1663,7 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1672,7 +1672,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1700,13 +1700,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>135.275240877313</v>
+        <v>134.9994691657081</v>
       </c>
       <c r="H15" t="n">
-        <v>92.26024958059013</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I15" t="n">
-        <v>18.18624318344743</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,16 +1733,16 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S15" t="n">
-        <v>133.2658462320107</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T15" t="n">
-        <v>191.828123840699</v>
+        <v>190.7165703189231</v>
       </c>
       <c r="U15" t="n">
-        <v>225.8053112726921</v>
+        <v>225.7871683969286</v>
       </c>
       <c r="V15" t="n">
         <v>232.8005871494253</v>
@@ -1764,25 +1764,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>39.11152304329182</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>166.2570059982656</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H16" t="n">
-        <v>146.8105729959039</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1815,25 +1815,25 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>118.3076024537364</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2244489913895</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1849,22 +1849,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>145.2481701217138</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H17" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1897,16 +1897,16 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T17" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>17.35112070699443</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
@@ -1940,10 +1940,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H18" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I18" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1970,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S18" t="n">
         <v>128.1435076414547</v>
@@ -2001,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>163.6898441249713</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2016,7 +2016,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>189.7690253314419</v>
@@ -2070,7 +2070,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>127.3165365479899</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2080,10 +2080,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -2095,13 +2095,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>410.9217256534534</v>
+        <v>67.3293869568036</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2134,19 +2134,19 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V20" t="n">
-        <v>78.47556194058173</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -2207,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S21" t="n">
         <v>128.1435076414547</v>
@@ -2238,16 +2238,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>108.1026156447375</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>189.7690253314419</v>
@@ -2298,10 +2298,10 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>100.0025634447712</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -2320,19 +2320,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>32.97988876732234</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2371,13 +2371,13 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V23" t="n">
-        <v>33.38304376059015</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
@@ -2484,7 +2484,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -2529,7 +2529,7 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>192.1675620474806</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -2538,7 +2538,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>119.0525754178801</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -2554,7 +2554,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>65.72456219185311</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -2563,19 +2563,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H26" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,25 +2605,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T26" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U26" t="n">
-        <v>71.62427497653232</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2681,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S27" t="n">
         <v>128.1435076414547</v>
@@ -2712,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -2724,10 +2724,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2766,22 +2766,22 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U28" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V28" t="n">
-        <v>37.59617708813238</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>230.2444561226613</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2791,7 +2791,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -2800,7 +2800,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>175.6872326388766</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
@@ -2809,10 +2809,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H29" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2848,13 +2848,13 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>173.2057702920258</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
@@ -2918,7 +2918,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S30" t="n">
         <v>128.1435076414547</v>
@@ -2949,22 +2949,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>42.01201317445354</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2997,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>35.19569619650092</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>219.5489492761692</v>
@@ -3018,7 +3018,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3028,7 +3028,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -3043,10 +3043,10 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>177.6065387483036</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>41.57692977292595</v>
@@ -3097,7 +3097,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>89.48046147214393</v>
       </c>
     </row>
     <row r="33">
@@ -3186,22 +3186,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>154.0058679980804</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3234,25 +3234,25 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T34" t="n">
-        <v>114.4746605491556</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -3265,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>287.1806053344215</v>
+        <v>265.3349637476828</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3274,16 +3274,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H35" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3316,10 +3316,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T35" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>250.995171958902</v>
@@ -3334,7 +3334,7 @@
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -3365,7 +3365,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I36" t="n">
-        <v>18.8172186824772</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3423,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
@@ -3435,13 +3435,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>128.1592673228011</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3477,7 +3477,7 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -3486,10 +3486,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>144.473080757917</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3511,13 +3511,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>85.17289288835127</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3562,13 +3562,13 @@
         <v>250.995171958902</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>314.0994493592043</v>
       </c>
       <c r="Y38" t="n">
         <v>386.2379386560536</v>
@@ -3629,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S39" t="n">
         <v>128.1435076414547</v>
@@ -3663,7 +3663,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
@@ -3708,28 +3708,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2118382056129</v>
+        <v>50.93328119989117</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>63.72703424640825</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3739,16 +3739,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>195.0465954186442</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>328.4875868554714</v>
       </c>
       <c r="F41" t="n">
         <v>406.8760457417114</v>
@@ -3760,7 +3760,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3796,13 +3796,13 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
@@ -3897,28 +3897,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3951,10 +3951,10 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>219.5489492761692</v>
+        <v>17.84935903930831</v>
       </c>
       <c r="U43" t="n">
-        <v>49.80552332505361</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -3966,7 +3966,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3976,7 +3976,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>365.2728917710076</v>
@@ -3988,16 +3988,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>177.606538748304</v>
       </c>
       <c r="G44" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I44" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,25 +4027,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>126.5388824951709</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4076,7 +4076,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I45" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4103,10 +4103,10 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S45" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T45" t="n">
         <v>190.7165703189231</v>
@@ -4134,13 +4134,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>85.78842623643681</v>
+        <v>163.6898441249717</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4149,13 +4149,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4194,13 +4194,13 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -4306,16 +4306,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1667.156396867425</v>
+        <v>1338.355738489329</v>
       </c>
       <c r="C2" t="n">
-        <v>1667.156396867425</v>
+        <v>1338.355738489329</v>
       </c>
       <c r="D2" t="n">
-        <v>1667.156396867425</v>
+        <v>1338.355738489329</v>
       </c>
       <c r="E2" t="n">
-        <v>1363.553390680693</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="F2" t="n">
         <v>952.5674858910851</v>
@@ -4330,13 +4330,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4354,28 +4354,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2642.120401548716</v>
+        <v>2649.414824726003</v>
       </c>
       <c r="S2" t="n">
-        <v>2642.120401548716</v>
+        <v>2649.414824726003</v>
       </c>
       <c r="T2" t="n">
-        <v>2642.120401548716</v>
+        <v>2649.414824726003</v>
       </c>
       <c r="U2" t="n">
-        <v>2388.358616186807</v>
+        <v>2395.653039364094</v>
       </c>
       <c r="V2" t="n">
-        <v>2057.295728843236</v>
+        <v>2064.590152020523</v>
       </c>
       <c r="W2" t="n">
-        <v>2057.295728843236</v>
+        <v>1711.821496750409</v>
       </c>
       <c r="X2" t="n">
-        <v>2057.295728843236</v>
+        <v>1338.355738489329</v>
       </c>
       <c r="Y2" t="n">
-        <v>1667.156396867425</v>
+        <v>1338.355738489329</v>
       </c>
     </row>
     <row r="3">
@@ -4385,22 +4385,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
         <v>115.9856282673424</v>
@@ -4418,7 +4418,7 @@
         <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
         <v>1748.695370517453</v>
@@ -4436,22 +4436,22 @@
         <v>2646.935720430047</v>
       </c>
       <c r="S3" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T3" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U3" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V3" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4464,19 +4464,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>398.3338608103785</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C4" t="n">
-        <v>229.3976778824716</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D4" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
         <v>53.94298182036445</v>
@@ -4494,46 +4494,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S4" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T4" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U4" t="n">
-        <v>579.9823256406182</v>
+        <v>438.9553738610024</v>
       </c>
       <c r="V4" t="n">
-        <v>579.9823256406182</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W4" t="n">
-        <v>579.9823256406182</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X4" t="n">
-        <v>579.9823256406182</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y4" t="n">
-        <v>579.9823256406182</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="5">
@@ -4543,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1567.641263708175</v>
+        <v>1405.321187657107</v>
       </c>
       <c r="C5" t="n">
-        <v>1198.678746767763</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="D5" t="n">
-        <v>1198.678746767763</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="E5" t="n">
-        <v>812.8904941695187</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F5" t="n">
-        <v>812.8904941695187</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G5" t="n">
-        <v>394.9266860677055</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H5" t="n">
         <v>207.4089578252748</v>
@@ -4570,10 +4570,10 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224081</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4591,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U5" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="V5" t="n">
-        <v>2697.149091018222</v>
+        <v>2168.926277893999</v>
       </c>
       <c r="W5" t="n">
-        <v>2344.380435748108</v>
+        <v>2168.926277893999</v>
       </c>
       <c r="X5" t="n">
-        <v>2344.380435748108</v>
+        <v>1795.460519632919</v>
       </c>
       <c r="Y5" t="n">
-        <v>1954.241103772296</v>
+        <v>1405.321187657107</v>
       </c>
     </row>
     <row r="6">
@@ -4646,25 +4646,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O6" t="n">
-        <v>2307.072755435191</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P6" t="n">
-        <v>2643.31756905002</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018222</v>
@@ -4701,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>728.1289842064342</v>
+        <v>438.7118141694736</v>
       </c>
       <c r="C7" t="n">
-        <v>559.1928012785273</v>
+        <v>438.7118141694736</v>
       </c>
       <c r="D7" t="n">
-        <v>409.0761618661916</v>
+        <v>359.6044479702274</v>
       </c>
       <c r="E7" t="n">
-        <v>409.0761618661916</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="F7" t="n">
-        <v>409.0761618661916</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="G7" t="n">
-        <v>348.0202652891861</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="H7" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
         <v>53.94298182036445</v>
@@ -4764,13 +4764,13 @@
         <v>728.1289842064342</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064342</v>
+        <v>438.7118141694736</v>
       </c>
       <c r="X7" t="n">
-        <v>728.1289842064342</v>
+        <v>438.7118141694736</v>
       </c>
       <c r="Y7" t="n">
-        <v>728.1289842064342</v>
+        <v>438.7118141694736</v>
       </c>
     </row>
     <row r="8">
@@ -4780,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2107.607341885688</v>
+        <v>1738.389234072494</v>
       </c>
       <c r="C8" t="n">
-        <v>2107.607341885688</v>
+        <v>1369.426717132083</v>
       </c>
       <c r="D8" t="n">
-        <v>1749.341643278937</v>
+        <v>1011.161018525332</v>
       </c>
       <c r="E8" t="n">
-        <v>1363.553390680693</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="F8" t="n">
-        <v>952.5674858910851</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G8" t="n">
-        <v>534.603677789272</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H8" t="n">
         <v>207.4089578252748</v>
@@ -4804,13 +4804,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.710838053314</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733125</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4834,22 +4834,22 @@
         <v>2697.149091018222</v>
       </c>
       <c r="T8" t="n">
-        <v>2692.432014591167</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="U8" t="n">
-        <v>2438.670229229258</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="V8" t="n">
-        <v>2107.607341885688</v>
+        <v>2147.451536646714</v>
       </c>
       <c r="W8" t="n">
-        <v>2107.607341885688</v>
+        <v>1794.6828813766</v>
       </c>
       <c r="X8" t="n">
-        <v>2107.607341885688</v>
+        <v>1738.389234072494</v>
       </c>
       <c r="Y8" t="n">
-        <v>2107.607341885688</v>
+        <v>1738.389234072494</v>
       </c>
     </row>
     <row r="9">
@@ -4859,22 +4859,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C9" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E9" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H9" t="n">
         <v>115.9856282673424</v>
@@ -4883,13 +4883,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>266.206002764199</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598708</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
         <v>1194.968834417902</v>
@@ -4904,22 +4904,22 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U9" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W9" t="n">
         <v>1572.325111207638</v>
@@ -4938,19 +4938,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>351.9727148150933</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="C10" t="n">
-        <v>351.9727148150933</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="D10" t="n">
-        <v>201.8560754027576</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036445</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036445</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="G10" t="n">
         <v>53.94298182036445</v>
@@ -4992,22 +4992,22 @@
         <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>606.6572030209802</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U10" t="n">
-        <v>606.6572030209802</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="V10" t="n">
-        <v>351.9727148150933</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="W10" t="n">
-        <v>351.9727148150933</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="X10" t="n">
-        <v>351.9727148150933</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="Y10" t="n">
-        <v>351.9727148150933</v>
+        <v>149.5382038240415</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1445.486923249809</v>
+        <v>2345.167438673965</v>
       </c>
       <c r="C11" t="n">
-        <v>1445.486923249809</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D11" t="n">
-        <v>1087.221224643058</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E11" t="n">
-        <v>1087.221224643058</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F11" t="n">
-        <v>676.2353198534508</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G11" t="n">
-        <v>356.8584014423642</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H11" t="n">
-        <v>53.94298182036445</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I11" t="n">
-        <v>53.94298182036445</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J11" t="n">
-        <v>199.5143021373487</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K11" t="n">
-        <v>468.4264940665502</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L11" t="n">
-        <v>838.9376088552593</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M11" t="n">
-        <v>1282.872051350724</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N11" t="n">
-        <v>1738.603625623768</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O11" t="n">
-        <v>2155.602766936376</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P11" t="n">
-        <v>2477.000885571628</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q11" t="n">
-        <v>2670.18474111696</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R11" t="n">
-        <v>2697.149091018222</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S11" t="n">
-        <v>2574.994750559857</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="T11" t="n">
-        <v>2574.994750559857</v>
+        <v>3119.628073993394</v>
       </c>
       <c r="U11" t="n">
-        <v>2574.994750559857</v>
+        <v>3119.628073993394</v>
       </c>
       <c r="V11" t="n">
-        <v>2574.994750559857</v>
+        <v>3119.628073993394</v>
       </c>
       <c r="W11" t="n">
-        <v>2222.226095289742</v>
+        <v>3119.628073993394</v>
       </c>
       <c r="X11" t="n">
-        <v>2222.226095289742</v>
+        <v>3119.628073993394</v>
       </c>
       <c r="Y11" t="n">
-        <v>1832.086763313931</v>
+        <v>2729.488742017582</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>931.3062050962127</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C12" t="n">
-        <v>756.8531758150857</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D12" t="n">
-        <v>607.9187661538344</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E12" t="n">
-        <v>448.681311148379</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F12" t="n">
-        <v>302.146753175264</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G12" t="n">
-        <v>165.5050957234327</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H12" t="n">
-        <v>72.31292442990731</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I12" t="n">
-        <v>53.94298182036445</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J12" t="n">
-        <v>246.6565409677914</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K12" t="n">
-        <v>702.6555516296427</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L12" t="n">
-        <v>1025.233352439357</v>
+        <v>765.1517452158137</v>
       </c>
       <c r="M12" t="n">
-        <v>1403.334158093158</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N12" t="n">
-        <v>1805.850811914302</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O12" t="n">
-        <v>2151.855116950615</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P12" t="n">
-        <v>2410.22100977735</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q12" t="n">
-        <v>2533.012570513408</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R12" t="n">
-        <v>2560.986726597623</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S12" t="n">
-        <v>2426.374760706703</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T12" t="n">
-        <v>2232.608979049431</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U12" t="n">
-        <v>2004.522806046712</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V12" t="n">
-        <v>1769.370697814969</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W12" t="n">
-        <v>1515.133341086767</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X12" t="n">
-        <v>1307.281840881235</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y12" t="n">
-        <v>1099.521542116281</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1057.385797430379</v>
+        <v>700.1577228956174</v>
       </c>
       <c r="C13" t="n">
-        <v>888.4496145024718</v>
+        <v>531.2215399677106</v>
       </c>
       <c r="D13" t="n">
-        <v>738.3329750901361</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="E13" t="n">
-        <v>590.419881507743</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F13" t="n">
-        <v>443.5299340098326</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G13" t="n">
-        <v>306.5851434000597</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H13" t="n">
-        <v>158.2916353233891</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I13" t="n">
-        <v>53.94298182036445</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J13" t="n">
-        <v>82.88339090485941</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K13" t="n">
-        <v>260.2782098866545</v>
+        <v>315.6219318279955</v>
       </c>
       <c r="L13" t="n">
-        <v>542.8089378877605</v>
+        <v>632.1817302764916</v>
       </c>
       <c r="M13" t="n">
-        <v>851.0870999282812</v>
+        <v>976.3387758760407</v>
       </c>
       <c r="N13" t="n">
-        <v>1157.469712732903</v>
+        <v>1317.747152581906</v>
       </c>
       <c r="O13" t="n">
-        <v>1424.447349606354</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P13" t="n">
-        <v>1629.372157534689</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q13" t="n">
-        <v>1687.816392302166</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R13" t="n">
-        <v>1687.816392302166</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S13" t="n">
-        <v>1687.816392302166</v>
+        <v>1735.60866391532</v>
       </c>
       <c r="T13" t="n">
-        <v>1687.816392302166</v>
+        <v>1513.842048484846</v>
       </c>
       <c r="U13" t="n">
-        <v>1687.816392302166</v>
+        <v>1513.842048484846</v>
       </c>
       <c r="V13" t="n">
-        <v>1687.816392302166</v>
+        <v>1330.588317767405</v>
       </c>
       <c r="W13" t="n">
-        <v>1687.816392302166</v>
+        <v>1330.588317767405</v>
       </c>
       <c r="X13" t="n">
-        <v>1459.826841404148</v>
+        <v>1102.598766869387</v>
       </c>
       <c r="Y13" t="n">
-        <v>1239.034262260618</v>
+        <v>881.8061877258572</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1236.578376364605</v>
+        <v>1624.638712032432</v>
       </c>
       <c r="C14" t="n">
-        <v>1236.578376364605</v>
+        <v>1255.67619509202</v>
       </c>
       <c r="D14" t="n">
-        <v>1236.578376364605</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="E14" t="n">
-        <v>942.5901339875998</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F14" t="n">
-        <v>531.6042291979923</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G14" t="n">
-        <v>116.0111571237145</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H14" t="n">
-        <v>116.0111571237145</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I14" t="n">
-        <v>53.94298182036446</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J14" t="n">
-        <v>199.5143021373487</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K14" t="n">
-        <v>468.4264940665503</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L14" t="n">
-        <v>838.9376088552594</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M14" t="n">
-        <v>1282.872051350724</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N14" t="n">
-        <v>1738.603625623768</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O14" t="n">
-        <v>2155.602766936376</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P14" t="n">
-        <v>2477.000885571628</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q14" t="n">
-        <v>2670.18474111696</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R14" t="n">
-        <v>2697.149091018223</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S14" t="n">
-        <v>2697.149091018223</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="T14" t="n">
-        <v>2697.149091018223</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="U14" t="n">
-        <v>2697.149091018223</v>
+        <v>3072.075344883008</v>
       </c>
       <c r="V14" t="n">
-        <v>2366.086203674652</v>
+        <v>2741.012457539437</v>
       </c>
       <c r="W14" t="n">
-        <v>2013.317548404538</v>
+        <v>2388.243802269323</v>
       </c>
       <c r="X14" t="n">
-        <v>2013.317548404538</v>
+        <v>2014.778044008243</v>
       </c>
       <c r="Y14" t="n">
-        <v>1623.178216428726</v>
+        <v>1624.638712032432</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>931.3062050962127</v>
+        <v>941.5438544811091</v>
       </c>
       <c r="C15" t="n">
-        <v>756.8531758150857</v>
+        <v>767.0908251999821</v>
       </c>
       <c r="D15" t="n">
-        <v>607.9187661538344</v>
+        <v>618.1564155387309</v>
       </c>
       <c r="E15" t="n">
-        <v>448.681311148379</v>
+        <v>458.9189605332754</v>
       </c>
       <c r="F15" t="n">
-        <v>302.146753175264</v>
+        <v>312.3844025601604</v>
       </c>
       <c r="G15" t="n">
-        <v>165.5050957234327</v>
+        <v>176.0213023927783</v>
       </c>
       <c r="H15" t="n">
-        <v>72.31292442990733</v>
+        <v>85.51940803064585</v>
       </c>
       <c r="I15" t="n">
-        <v>53.94298182036446</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J15" t="n">
-        <v>246.6565409677914</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K15" t="n">
-        <v>509.8374395364953</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L15" t="n">
-        <v>817.2568375808671</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M15" t="n">
-        <v>1195.357643234668</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N15" t="n">
-        <v>1597.874297055812</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O15" t="n">
-        <v>1943.878602092125</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P15" t="n">
-        <v>2202.24449491886</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q15" t="n">
-        <v>2533.012570513408</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R15" t="n">
-        <v>2560.986726597623</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S15" t="n">
-        <v>2426.374760706703</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T15" t="n">
-        <v>2232.608979049431</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U15" t="n">
-        <v>2004.522806046712</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V15" t="n">
-        <v>1769.370697814969</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W15" t="n">
-        <v>1515.133341086767</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X15" t="n">
-        <v>1307.281840881235</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y15" t="n">
-        <v>1099.521542116281</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>854.59912901751</v>
+        <v>696.2582702654239</v>
       </c>
       <c r="C16" t="n">
-        <v>815.092540084892</v>
+        <v>527.322087337517</v>
       </c>
       <c r="D16" t="n">
-        <v>664.9759006725562</v>
+        <v>527.322087337517</v>
       </c>
       <c r="E16" t="n">
-        <v>517.0628070901631</v>
+        <v>527.322087337517</v>
       </c>
       <c r="F16" t="n">
-        <v>370.1728595922528</v>
+        <v>380.4321398396067</v>
       </c>
       <c r="G16" t="n">
-        <v>202.236489897035</v>
+        <v>212.7293032143257</v>
       </c>
       <c r="H16" t="n">
-        <v>53.94298182036446</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I16" t="n">
-        <v>53.94298182036446</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J16" t="n">
-        <v>82.88339090485941</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K16" t="n">
-        <v>260.2782098866545</v>
+        <v>315.6219318279955</v>
       </c>
       <c r="L16" t="n">
-        <v>542.8089378877603</v>
+        <v>632.1817302764916</v>
       </c>
       <c r="M16" t="n">
-        <v>851.0870999282808</v>
+        <v>976.3387758760407</v>
       </c>
       <c r="N16" t="n">
-        <v>1157.469712732903</v>
+        <v>1317.747152581906</v>
       </c>
       <c r="O16" t="n">
-        <v>1424.447349606354</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P16" t="n">
-        <v>1629.372157534689</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q16" t="n">
-        <v>1687.816392302165</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R16" t="n">
-        <v>1687.816392302165</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S16" t="n">
-        <v>1687.816392302165</v>
+        <v>1735.60866391532</v>
       </c>
       <c r="T16" t="n">
-        <v>1687.816392302165</v>
+        <v>1616.106035174172</v>
       </c>
       <c r="U16" t="n">
-        <v>1398.700787260358</v>
+        <v>1616.106035174172</v>
       </c>
       <c r="V16" t="n">
-        <v>1144.016299054471</v>
+        <v>1616.106035174172</v>
       </c>
       <c r="W16" t="n">
-        <v>854.59912901751</v>
+        <v>1326.688865137211</v>
       </c>
       <c r="X16" t="n">
-        <v>854.59912901751</v>
+        <v>1098.699314239194</v>
       </c>
       <c r="Y16" t="n">
-        <v>854.59912901751</v>
+        <v>877.9067350956636</v>
       </c>
     </row>
     <row r="17">
@@ -5491,40 +5491,40 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>921.7704558796256</v>
+        <v>2047.583838282732</v>
       </c>
       <c r="C17" t="n">
-        <v>552.807938939214</v>
+        <v>1678.62132134232</v>
       </c>
       <c r="D17" t="n">
-        <v>406.0926155839475</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E17" t="n">
-        <v>406.0926155839475</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F17" t="n">
-        <v>406.0926155839475</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G17" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H17" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I17" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J17" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K17" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L17" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M17" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N17" t="n">
         <v>2120.555556060171</v>
@@ -5539,28 +5539,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R17" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S17" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T17" t="n">
-        <v>3009.337405520488</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="U17" t="n">
-        <v>2755.806928794324</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="V17" t="n">
-        <v>2424.744041450753</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="W17" t="n">
-        <v>2071.975386180639</v>
+        <v>3197.788768583745</v>
       </c>
       <c r="X17" t="n">
-        <v>1698.509627919559</v>
+        <v>2824.323010322666</v>
       </c>
       <c r="Y17" t="n">
-        <v>1308.370295943747</v>
+        <v>2434.183678346854</v>
       </c>
     </row>
     <row r="18">
@@ -5570,43 +5570,43 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C18" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D18" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E18" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F18" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G18" t="n">
-        <v>176.0213023927781</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H18" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I18" t="n">
         <v>66.5121164321834</v>
       </c>
       <c r="J18" t="n">
-        <v>160.1893859228005</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K18" t="n">
-        <v>398.4535849031476</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L18" t="n">
-        <v>765.1517452158129</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M18" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N18" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O18" t="n">
         <v>2096.912393410638</v>
@@ -5627,7 +5627,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U18" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V18" t="n">
         <v>1779.608347199865</v>
@@ -5636,10 +5636,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X18" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y18" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="19">
@@ -5649,40 +5649,40 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>234.2149530574645</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="C19" t="n">
-        <v>234.2149530574645</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="D19" t="n">
-        <v>234.2149530574645</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="E19" t="n">
-        <v>234.2149530574645</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="F19" t="n">
-        <v>234.2149530574645</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G19" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H19" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I19" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J19" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K19" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L19" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M19" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N19" t="n">
         <v>1317.747152581905</v>
@@ -5694,31 +5694,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q19" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R19" t="n">
-        <v>1837.46409084602</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S19" t="n">
-        <v>1645.778206672847</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T19" t="n">
-        <v>1424.011591242373</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U19" t="n">
-        <v>1134.908724368016</v>
+        <v>1224.739181610489</v>
       </c>
       <c r="V19" t="n">
-        <v>880.2242361621292</v>
+        <v>970.0546934046018</v>
       </c>
       <c r="W19" t="n">
-        <v>590.8070661251686</v>
+        <v>680.6375233676413</v>
       </c>
       <c r="X19" t="n">
-        <v>362.8175152271513</v>
+        <v>452.6479724696239</v>
       </c>
       <c r="Y19" t="n">
-        <v>234.2149530574645</v>
+        <v>231.8553933260938</v>
       </c>
     </row>
     <row r="20">
@@ -5728,31 +5728,31 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1636.624422581789</v>
+        <v>1998.104470293511</v>
       </c>
       <c r="C20" t="n">
-        <v>1636.624422581789</v>
+        <v>1629.141953353099</v>
       </c>
       <c r="D20" t="n">
-        <v>1278.358723975039</v>
+        <v>1270.876254746348</v>
       </c>
       <c r="E20" t="n">
-        <v>892.5704713767946</v>
+        <v>885.0880021481041</v>
       </c>
       <c r="F20" t="n">
-        <v>481.5845665871869</v>
+        <v>474.1020973584966</v>
       </c>
       <c r="G20" t="n">
-        <v>66.5121164321834</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H20" t="n">
-        <v>66.5121164321834</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I20" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J20" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K20" t="n">
         <v>589.2106210810553</v>
@@ -5761,7 +5761,7 @@
         <v>1040.244834329464</v>
       </c>
       <c r="M20" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N20" t="n">
         <v>2120.555556060171</v>
@@ -5776,28 +5776,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R20" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S20" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T20" t="n">
-        <v>3119.628073993392</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U20" t="n">
-        <v>2866.097597267229</v>
+        <v>3072.075344883007</v>
       </c>
       <c r="V20" t="n">
-        <v>2786.829352882803</v>
+        <v>2741.012457539437</v>
       </c>
       <c r="W20" t="n">
-        <v>2786.829352882803</v>
+        <v>2388.243802269322</v>
       </c>
       <c r="X20" t="n">
-        <v>2413.363594621723</v>
+        <v>2388.243802269322</v>
       </c>
       <c r="Y20" t="n">
-        <v>2023.224262645911</v>
+        <v>1998.104470293511</v>
       </c>
     </row>
     <row r="21">
@@ -5807,46 +5807,46 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C21" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D21" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E21" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F21" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G21" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H21" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I21" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J21" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K21" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L21" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M21" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N21" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O21" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P21" t="n">
         <v>2407.411984886741</v>
@@ -5864,7 +5864,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U21" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V21" t="n">
         <v>1779.608347199865</v>
@@ -5873,10 +5873,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X21" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y21" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="22">
@@ -5886,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>403.1511359853714</v>
+        <v>701.1808689801002</v>
       </c>
       <c r="C22" t="n">
-        <v>234.2149530574644</v>
+        <v>532.2446860521933</v>
       </c>
       <c r="D22" t="n">
-        <v>234.2149530574644</v>
+        <v>382.1280466398576</v>
       </c>
       <c r="E22" t="n">
-        <v>234.2149530574644</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="F22" t="n">
-        <v>234.2149530574644</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G22" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H22" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I22" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J22" t="n">
         <v>111.634748879119</v>
@@ -5934,28 +5934,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R22" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S22" t="n">
-        <v>1645.778206672847</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T22" t="n">
-        <v>1424.011591242373</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U22" t="n">
-        <v>1424.011591242373</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="V22" t="n">
-        <v>1322.998900894119</v>
+        <v>1259.157560278958</v>
       </c>
       <c r="W22" t="n">
-        <v>1033.581730857159</v>
+        <v>1259.157560278958</v>
       </c>
       <c r="X22" t="n">
-        <v>805.5921799591412</v>
+        <v>1031.168009380941</v>
       </c>
       <c r="Y22" t="n">
-        <v>584.799600815611</v>
+        <v>810.3754302374108</v>
       </c>
     </row>
     <row r="23">
@@ -5965,19 +5965,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1678.62132134232</v>
+        <v>921.7704558796252</v>
       </c>
       <c r="C23" t="n">
-        <v>1678.62132134232</v>
+        <v>552.8079389392135</v>
       </c>
       <c r="D23" t="n">
-        <v>1320.35562273557</v>
+        <v>519.4949199823222</v>
       </c>
       <c r="E23" t="n">
-        <v>934.5673701373257</v>
+        <v>519.4949199823222</v>
       </c>
       <c r="F23" t="n">
-        <v>523.5814653477182</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="G23" t="n">
         <v>108.5090151927147</v>
@@ -5986,55 +5986,55 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I23" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J23" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K23" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L23" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M23" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N23" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O23" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P23" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q23" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R23" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S23" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T23" t="n">
-        <v>3215.315153136266</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U23" t="n">
-        <v>3215.315153136266</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V23" t="n">
-        <v>3181.594906913448</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W23" t="n">
-        <v>2828.826251643334</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="X23" t="n">
-        <v>2455.360493382254</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="Y23" t="n">
-        <v>2065.221161406442</v>
+        <v>1308.370295943747</v>
       </c>
     </row>
     <row r="24">
@@ -6044,34 +6044,34 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C24" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D24" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E24" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F24" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G24" t="n">
-        <v>176.0213023927781</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H24" t="n">
-        <v>85.51940803064576</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I24" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J24" t="n">
         <v>160.1893859228006</v>
       </c>
       <c r="K24" t="n">
-        <v>398.4535849031475</v>
+        <v>398.4535849031477</v>
       </c>
       <c r="L24" t="n">
         <v>765.1517452158131</v>
@@ -6101,7 +6101,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U24" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V24" t="n">
         <v>1779.608347199865</v>
@@ -6110,10 +6110,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X24" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y24" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="25">
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>2246.382089998689</v>
+        <v>700.1577228956174</v>
       </c>
       <c r="C25" t="n">
-        <v>2077.445907070782</v>
+        <v>531.2215399677106</v>
       </c>
       <c r="D25" t="n">
-        <v>1927.329267658446</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="E25" t="n">
-        <v>1779.416174076053</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F25" t="n">
-        <v>1632.526226578143</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="G25" t="n">
-        <v>1464.823389952862</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H25" t="n">
-        <v>1464.823389952862</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I25" t="n">
-        <v>1464.823389952862</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J25" t="n">
-        <v>1509.946022399798</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K25" t="n">
-        <v>1713.933205348674</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L25" t="n">
-        <v>2030.49300379717</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M25" t="n">
-        <v>2374.650049396719</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N25" t="n">
-        <v>2716.058426102584</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O25" t="n">
-        <v>3015.388025022997</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P25" t="n">
-        <v>3247.995525456657</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q25" t="n">
-        <v>3325.605821609171</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R25" t="n">
-        <v>3325.605821609171</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S25" t="n">
-        <v>3325.605821609171</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T25" t="n">
-        <v>3131.497173076363</v>
+        <v>1705.527932658019</v>
       </c>
       <c r="U25" t="n">
-        <v>3131.497173076363</v>
+        <v>1705.527932658019</v>
       </c>
       <c r="V25" t="n">
-        <v>2876.812684870476</v>
+        <v>1450.843444452132</v>
       </c>
       <c r="W25" t="n">
-        <v>2876.812684870476</v>
+        <v>1330.588317767405</v>
       </c>
       <c r="X25" t="n">
-        <v>2648.823133972459</v>
+        <v>1102.598766869387</v>
       </c>
       <c r="Y25" t="n">
-        <v>2428.030554828929</v>
+        <v>881.8061877258572</v>
       </c>
     </row>
     <row r="26">
@@ -6202,28 +6202,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1544.306735920717</v>
+        <v>2005.586939522201</v>
       </c>
       <c r="C26" t="n">
-        <v>1175.344218980305</v>
+        <v>1636.624422581789</v>
       </c>
       <c r="D26" t="n">
-        <v>817.078520373555</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="E26" t="n">
-        <v>817.078520373555</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F26" t="n">
-        <v>406.0926155839475</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G26" t="n">
-        <v>406.0926155839475</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H26" t="n">
-        <v>108.5090151927147</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I26" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J26" t="n">
         <v>255.3912473912089</v>
@@ -6232,10 +6232,10 @@
         <v>589.2106210810553</v>
       </c>
       <c r="L26" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M26" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N26" t="n">
         <v>2120.555556060171</v>
@@ -6250,28 +6250,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R26" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S26" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T26" t="n">
-        <v>3119.628073993393</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U26" t="n">
-        <v>3047.280321491845</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V26" t="n">
-        <v>3047.280321491845</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W26" t="n">
-        <v>2694.511666221731</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="X26" t="n">
-        <v>2321.045907960651</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="Y26" t="n">
-        <v>1930.906575984839</v>
+        <v>2071.975386180638</v>
       </c>
     </row>
     <row r="27">
@@ -6281,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>941.5438544811095</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C27" t="n">
-        <v>767.0908251999825</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D27" t="n">
-        <v>618.1564155387314</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E27" t="n">
-        <v>458.9189605332758</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F27" t="n">
-        <v>312.3844025601609</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G27" t="n">
-        <v>176.0213023927789</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H27" t="n">
-        <v>85.51940803064583</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I27" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J27" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K27" t="n">
-        <v>398.4535849031484</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L27" t="n">
-        <v>765.1517452158141</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M27" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N27" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O27" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P27" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q27" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R27" t="n">
-        <v>2564.909189125858</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S27" t="n">
-        <v>2435.471302619338</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T27" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U27" t="n">
-        <v>2014.760455431609</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V27" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W27" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X27" t="n">
         <v>1317.519490266131</v>
       </c>
       <c r="Y27" t="n">
-        <v>1109.759191501178</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="28">
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>2078.679253373407</v>
+        <v>701.1808689801002</v>
       </c>
       <c r="C28" t="n">
-        <v>1909.7430704455</v>
+        <v>532.2446860521933</v>
       </c>
       <c r="D28" t="n">
-        <v>1759.626431033164</v>
+        <v>382.1280466398575</v>
       </c>
       <c r="E28" t="n">
-        <v>1611.713337450771</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="F28" t="n">
-        <v>1464.823389952861</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="G28" t="n">
-        <v>1464.823389952861</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H28" t="n">
-        <v>1464.823389952861</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I28" t="n">
-        <v>1464.823389952861</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J28" t="n">
-        <v>1509.946022399797</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K28" t="n">
-        <v>1713.933205348673</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L28" t="n">
-        <v>2030.493003797169</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M28" t="n">
-        <v>2374.650049396718</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N28" t="n">
-        <v>2716.058426102583</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O28" t="n">
-        <v>3015.388025022996</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P28" t="n">
-        <v>3247.995525456656</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q28" t="n">
-        <v>3325.605821609171</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R28" t="n">
-        <v>3325.605821609171</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S28" t="n">
-        <v>3325.605821609171</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T28" t="n">
-        <v>3325.605821609171</v>
+        <v>1705.527932658019</v>
       </c>
       <c r="U28" t="n">
-        <v>3036.502954734814</v>
+        <v>1416.425065783662</v>
       </c>
       <c r="V28" t="n">
-        <v>2998.527018282155</v>
+        <v>1161.740577577775</v>
       </c>
       <c r="W28" t="n">
-        <v>2709.109848245194</v>
+        <v>929.1704198781175</v>
       </c>
       <c r="X28" t="n">
-        <v>2481.120297347177</v>
+        <v>701.1808689801002</v>
       </c>
       <c r="Y28" t="n">
-        <v>2260.327718203647</v>
+        <v>701.1808689801002</v>
       </c>
     </row>
     <row r="29">
@@ -6439,40 +6439,40 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1767.878520285689</v>
+        <v>1636.624422581789</v>
       </c>
       <c r="C29" t="n">
-        <v>1767.878520285689</v>
+        <v>1636.624422581789</v>
       </c>
       <c r="D29" t="n">
-        <v>1409.612821678939</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="E29" t="n">
-        <v>1232.150970528558</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F29" t="n">
-        <v>821.1650657389509</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G29" t="n">
-        <v>406.0926155839475</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H29" t="n">
-        <v>108.5090151927147</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I29" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J29" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K29" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L29" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M29" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N29" t="n">
         <v>2120.555556060171</v>
@@ -6487,28 +6487,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R29" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S29" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T29" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="U29" t="n">
-        <v>3215.315153136266</v>
+        <v>2961.784676410101</v>
       </c>
       <c r="V29" t="n">
-        <v>2884.252265792695</v>
+        <v>2786.829352882803</v>
       </c>
       <c r="W29" t="n">
-        <v>2531.483610522581</v>
+        <v>2786.829352882803</v>
       </c>
       <c r="X29" t="n">
-        <v>2158.017852261501</v>
+        <v>2413.363594621723</v>
       </c>
       <c r="Y29" t="n">
-        <v>1767.878520285689</v>
+        <v>2023.224262645911</v>
       </c>
     </row>
     <row r="30">
@@ -6539,16 +6539,16 @@
         <v>85.51940803064545</v>
       </c>
       <c r="I30" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J30" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K30" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031477</v>
       </c>
       <c r="L30" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M30" t="n">
         <v>1212.428070438129</v>
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>235.4482993600903</v>
+        <v>423.5412774992673</v>
       </c>
       <c r="C31" t="n">
-        <v>66.51211643218342</v>
+        <v>423.5412774992673</v>
       </c>
       <c r="D31" t="n">
-        <v>66.51211643218342</v>
+        <v>423.5412774992673</v>
       </c>
       <c r="E31" t="n">
-        <v>66.51211643218342</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F31" t="n">
-        <v>66.51211643218342</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="G31" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H31" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I31" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J31" t="n">
         <v>111.634748879119</v>
@@ -6645,28 +6645,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R31" t="n">
-        <v>1891.743339809199</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S31" t="n">
-        <v>1700.057455636025</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T31" t="n">
-        <v>1478.290840205551</v>
+        <v>1705.527932658019</v>
       </c>
       <c r="U31" t="n">
-        <v>1189.187973331195</v>
+        <v>1416.425065783662</v>
       </c>
       <c r="V31" t="n">
-        <v>934.5034851253081</v>
+        <v>1161.740577577775</v>
       </c>
       <c r="W31" t="n">
-        <v>645.0863150883474</v>
+        <v>872.3234075408147</v>
       </c>
       <c r="X31" t="n">
-        <v>417.0967641903301</v>
+        <v>644.3338566427974</v>
       </c>
       <c r="Y31" t="n">
-        <v>417.0967641903301</v>
+        <v>423.5412774992673</v>
       </c>
     </row>
     <row r="32">
@@ -6676,52 +6676,52 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1698.50962791956</v>
+        <v>1221.525483338121</v>
       </c>
       <c r="C32" t="n">
-        <v>1329.547110979148</v>
+        <v>852.5629663977095</v>
       </c>
       <c r="D32" t="n">
-        <v>971.2814123723974</v>
+        <v>494.2972677909589</v>
       </c>
       <c r="E32" t="n">
-        <v>585.4931597741531</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="F32" t="n">
-        <v>585.4931597741531</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="G32" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H32" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I32" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J32" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K32" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810564</v>
       </c>
       <c r="L32" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M32" t="n">
         <v>1573.776739001389</v>
       </c>
       <c r="N32" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O32" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P32" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q32" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R32" t="n">
         <v>3325.605821609171</v>
@@ -6730,22 +6730,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T32" t="n">
-        <v>3009.337405520488</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U32" t="n">
-        <v>2755.806928794324</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V32" t="n">
         <v>2424.744041450754</v>
       </c>
       <c r="W32" t="n">
-        <v>2071.975386180639</v>
+        <v>2071.97538618064</v>
       </c>
       <c r="X32" t="n">
         <v>1698.50962791956</v>
       </c>
       <c r="Y32" t="n">
-        <v>1698.50962791956</v>
+        <v>1608.125323402243</v>
       </c>
     </row>
     <row r="33">
@@ -6755,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>941.5438544811095</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C33" t="n">
-        <v>767.0908251999825</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D33" t="n">
-        <v>618.1564155387314</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E33" t="n">
-        <v>458.9189605332758</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F33" t="n">
-        <v>312.3844025601609</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G33" t="n">
-        <v>176.0213023927789</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H33" t="n">
-        <v>85.51940803064583</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I33" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J33" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K33" t="n">
-        <v>398.4535849031484</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L33" t="n">
-        <v>765.1517452158141</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M33" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N33" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O33" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P33" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q33" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R33" t="n">
-        <v>2564.909189125858</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S33" t="n">
-        <v>2435.471302619338</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T33" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U33" t="n">
-        <v>2014.760455431609</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V33" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W33" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X33" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y33" t="n">
-        <v>1109.759191501178</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="34">
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1464.823389952862</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="C34" t="n">
-        <v>1464.823389952862</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D34" t="n">
-        <v>1464.823389952862</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E34" t="n">
-        <v>1464.823389952862</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F34" t="n">
-        <v>1464.823389952862</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G34" t="n">
-        <v>1464.823389952862</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H34" t="n">
-        <v>1464.823389952862</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I34" t="n">
-        <v>1464.823389952862</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J34" t="n">
-        <v>1509.946022399797</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K34" t="n">
-        <v>1713.933205348673</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L34" t="n">
-        <v>2030.49300379717</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M34" t="n">
-        <v>2374.650049396719</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N34" t="n">
-        <v>2716.058426102583</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O34" t="n">
-        <v>3015.388025022997</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P34" t="n">
-        <v>3247.995525456656</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q34" t="n">
-        <v>3325.605821609171</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R34" t="n">
-        <v>3235.775364366699</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S34" t="n">
-        <v>3044.089480193525</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T34" t="n">
-        <v>2928.458509941853</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U34" t="n">
-        <v>2639.355643067496</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="V34" t="n">
-        <v>2384.671154861609</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="W34" t="n">
-        <v>2095.253984824649</v>
+        <v>1224.424878447885</v>
       </c>
       <c r="X34" t="n">
-        <v>1867.264433926631</v>
+        <v>1224.424878447885</v>
       </c>
       <c r="Y34" t="n">
-        <v>1646.471854783101</v>
+        <v>1003.632299304354</v>
       </c>
     </row>
     <row r="35">
@@ -6913,22 +6913,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1892.184635123826</v>
+        <v>1619.798686923957</v>
       </c>
       <c r="C35" t="n">
-        <v>1523.222118183415</v>
+        <v>1250.836169983545</v>
       </c>
       <c r="D35" t="n">
-        <v>1164.956419576664</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="E35" t="n">
-        <v>779.1681669784198</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F35" t="n">
-        <v>779.1681669784198</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G35" t="n">
-        <v>364.0957168234162</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H35" t="n">
         <v>66.51211643218343</v>
@@ -6964,25 +6964,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S35" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T35" t="n">
-        <v>3119.628073993394</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U35" t="n">
-        <v>2866.09759726723</v>
+        <v>2961.784676410103</v>
       </c>
       <c r="V35" t="n">
-        <v>2535.034709923659</v>
+        <v>2630.721789066532</v>
       </c>
       <c r="W35" t="n">
-        <v>2182.266054653545</v>
+        <v>2277.953133796418</v>
       </c>
       <c r="X35" t="n">
-        <v>2182.266054653545</v>
+        <v>2277.953133796418</v>
       </c>
       <c r="Y35" t="n">
-        <v>2182.266054653545</v>
+        <v>1887.813801820606</v>
       </c>
     </row>
     <row r="36">
@@ -6992,37 +6992,37 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>941.5438544811084</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C36" t="n">
-        <v>767.0908251999814</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D36" t="n">
-        <v>618.1564155387301</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E36" t="n">
-        <v>458.9189605332746</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F36" t="n">
-        <v>312.3844025601596</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G36" t="n">
-        <v>176.0213023927777</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H36" t="n">
-        <v>85.51940803064525</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I36" t="n">
         <v>66.51211643218343</v>
       </c>
       <c r="J36" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K36" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031477</v>
       </c>
       <c r="L36" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M36" t="n">
         <v>1212.428070438129</v>
@@ -7049,7 +7049,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U36" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V36" t="n">
         <v>1779.608347199865</v>
@@ -7058,10 +7058,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X36" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y36" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="37">
@@ -7071,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>662.9318377313859</v>
+        <v>994.2880032601528</v>
       </c>
       <c r="C37" t="n">
-        <v>493.9956548034791</v>
+        <v>825.3518203322459</v>
       </c>
       <c r="D37" t="n">
-        <v>343.8790153911433</v>
+        <v>675.2351809199101</v>
       </c>
       <c r="E37" t="n">
-        <v>195.9659218087502</v>
+        <v>527.322087337517</v>
       </c>
       <c r="F37" t="n">
-        <v>195.9659218087502</v>
+        <v>380.4321398396067</v>
       </c>
       <c r="G37" t="n">
-        <v>66.51211643218343</v>
+        <v>212.7293032143257</v>
       </c>
       <c r="H37" t="n">
         <v>66.51211643218343</v>
@@ -7125,22 +7125,22 @@
         <v>1837.464090846021</v>
       </c>
       <c r="T37" t="n">
-        <v>1837.464090846021</v>
+        <v>1615.697475415547</v>
       </c>
       <c r="U37" t="n">
-        <v>1837.464090846021</v>
+        <v>1615.697475415547</v>
       </c>
       <c r="V37" t="n">
-        <v>1582.779602640134</v>
+        <v>1361.01298720966</v>
       </c>
       <c r="W37" t="n">
-        <v>1293.362432603173</v>
+        <v>1215.080582403683</v>
       </c>
       <c r="X37" t="n">
-        <v>1065.372881705156</v>
+        <v>1215.080582403683</v>
       </c>
       <c r="Y37" t="n">
-        <v>844.5803025616257</v>
+        <v>994.2880032601528</v>
       </c>
     </row>
     <row r="38">
@@ -7150,19 +7150,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>921.7704558796256</v>
+        <v>1661.795585684488</v>
       </c>
       <c r="C38" t="n">
-        <v>552.807938939214</v>
+        <v>1292.833068744076</v>
       </c>
       <c r="D38" t="n">
-        <v>194.5422403324635</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="E38" t="n">
-        <v>108.5090151927147</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F38" t="n">
-        <v>108.5090151927147</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G38" t="n">
         <v>108.5090151927147</v>
@@ -7171,31 +7171,31 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I38" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J38" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K38" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L38" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M38" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N38" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O38" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P38" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q38" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R38" t="n">
         <v>3325.605821609171</v>
@@ -7204,22 +7204,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T38" t="n">
-        <v>3009.337405520488</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U38" t="n">
-        <v>2755.806928794324</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V38" t="n">
-        <v>2424.744041450753</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="W38" t="n">
-        <v>2071.975386180639</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="X38" t="n">
-        <v>1698.509627919559</v>
+        <v>2438.534757724422</v>
       </c>
       <c r="Y38" t="n">
-        <v>1308.370295943747</v>
+        <v>2048.39542574861</v>
       </c>
     </row>
     <row r="39">
@@ -7244,22 +7244,22 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G39" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H39" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I39" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J39" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K39" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031477</v>
       </c>
       <c r="L39" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M39" t="n">
         <v>1212.428070438129</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>2246.382089998688</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="C40" t="n">
-        <v>2077.445907070781</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D40" t="n">
-        <v>1927.329267658446</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E40" t="n">
-        <v>1779.416174076052</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F40" t="n">
-        <v>1632.526226578142</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G40" t="n">
-        <v>1464.823389952861</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H40" t="n">
-        <v>1464.823389952861</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I40" t="n">
-        <v>1464.823389952861</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J40" t="n">
-        <v>1509.946022399797</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K40" t="n">
-        <v>1713.933205348673</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L40" t="n">
-        <v>2030.493003797169</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M40" t="n">
-        <v>2374.650049396718</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N40" t="n">
-        <v>2716.058426102583</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O40" t="n">
-        <v>3015.388025022996</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P40" t="n">
-        <v>3247.995525456656</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q40" t="n">
-        <v>3325.605821609171</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R40" t="n">
-        <v>3325.605821609171</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S40" t="n">
-        <v>3325.605821609171</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="T40" t="n">
-        <v>3325.605821609171</v>
+        <v>1615.697475415547</v>
       </c>
       <c r="U40" t="n">
-        <v>3036.502954734814</v>
+        <v>1564.249716627778</v>
       </c>
       <c r="V40" t="n">
-        <v>2781.818466528927</v>
+        <v>1309.565228421891</v>
       </c>
       <c r="W40" t="n">
-        <v>2492.401296491967</v>
+        <v>1309.565228421891</v>
       </c>
       <c r="X40" t="n">
-        <v>2492.401296491967</v>
+        <v>1081.575677523874</v>
       </c>
       <c r="Y40" t="n">
-        <v>2428.030554828928</v>
+        <v>860.7830983803434</v>
       </c>
     </row>
     <row r="41">
@@ -7387,37 +7387,37 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1844.338003964586</v>
+        <v>1624.638712032431</v>
       </c>
       <c r="C41" t="n">
-        <v>1475.375487024174</v>
+        <v>1624.638712032431</v>
       </c>
       <c r="D41" t="n">
-        <v>1278.358723975039</v>
+        <v>1266.373013425681</v>
       </c>
       <c r="E41" t="n">
-        <v>892.5704713767946</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F41" t="n">
-        <v>481.5845665871869</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G41" t="n">
-        <v>66.5121164321834</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H41" t="n">
-        <v>66.5121164321834</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I41" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J41" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912083</v>
       </c>
       <c r="K41" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810548</v>
       </c>
       <c r="L41" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M41" t="n">
         <v>1573.776739001388</v>
@@ -7426,37 +7426,37 @@
         <v>2120.55555606017</v>
       </c>
       <c r="O41" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P41" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q41" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R41" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S41" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T41" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U41" t="n">
-        <v>3325.60582160917</v>
+        <v>3072.075344883008</v>
       </c>
       <c r="V41" t="n">
-        <v>2994.542934265599</v>
+        <v>2741.012457539437</v>
       </c>
       <c r="W41" t="n">
-        <v>2994.542934265599</v>
+        <v>2388.243802269323</v>
       </c>
       <c r="X41" t="n">
-        <v>2621.07717600452</v>
+        <v>2014.778044008243</v>
       </c>
       <c r="Y41" t="n">
-        <v>2230.937844028708</v>
+        <v>1624.638712032431</v>
       </c>
     </row>
     <row r="42">
@@ -7466,37 +7466,37 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C42" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D42" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E42" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F42" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G42" t="n">
-        <v>176.0213023927781</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H42" t="n">
-        <v>85.51940803064576</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I42" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J42" t="n">
         <v>160.1893859228006</v>
       </c>
       <c r="K42" t="n">
-        <v>398.4535849031476</v>
+        <v>398.4535849031477</v>
       </c>
       <c r="L42" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M42" t="n">
         <v>1212.428070438129</v>
@@ -7523,7 +7523,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U42" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V42" t="n">
         <v>1779.608347199865</v>
@@ -7532,10 +7532,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X42" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y42" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="43">
@@ -7545,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>480.687070124138</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="C43" t="n">
-        <v>311.7508871962311</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D43" t="n">
-        <v>311.7508871962311</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E43" t="n">
-        <v>163.837793613838</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F43" t="n">
-        <v>163.837793613838</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G43" t="n">
-        <v>163.837793613838</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H43" t="n">
-        <v>163.837793613838</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I43" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J43" t="n">
         <v>111.634748879119</v>
@@ -7599,22 +7599,22 @@
         <v>1927.294548088493</v>
       </c>
       <c r="T43" t="n">
-        <v>1705.527932658019</v>
+        <v>1909.264892493232</v>
       </c>
       <c r="U43" t="n">
-        <v>1655.219323238773</v>
+        <v>1620.162025618876</v>
       </c>
       <c r="V43" t="n">
-        <v>1400.534835032886</v>
+        <v>1365.477537412989</v>
       </c>
       <c r="W43" t="n">
-        <v>1111.117664995925</v>
+        <v>1076.060367376028</v>
       </c>
       <c r="X43" t="n">
-        <v>883.1281140979079</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="Y43" t="n">
-        <v>662.3355349543777</v>
+        <v>848.0708164780106</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2047.583838282732</v>
+        <v>1698.50962791956</v>
       </c>
       <c r="C44" t="n">
-        <v>1678.62132134232</v>
+        <v>1329.547110979148</v>
       </c>
       <c r="D44" t="n">
-        <v>1320.35562273557</v>
+        <v>971.2814123723979</v>
       </c>
       <c r="E44" t="n">
-        <v>934.5673701373257</v>
+        <v>585.4931597741536</v>
       </c>
       <c r="F44" t="n">
-        <v>523.5814653477182</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="G44" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H44" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I44" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J44" t="n">
         <v>255.3912473912089</v>
       </c>
       <c r="K44" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L44" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M44" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N44" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O44" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P44" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q44" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R44" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S44" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T44" t="n">
-        <v>3325.605821609171</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U44" t="n">
-        <v>3325.605821609171</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V44" t="n">
-        <v>3325.605821609171</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W44" t="n">
-        <v>3197.788768583745</v>
+        <v>2071.97538618064</v>
       </c>
       <c r="X44" t="n">
-        <v>2824.323010322666</v>
+        <v>1698.50962791956</v>
       </c>
       <c r="Y44" t="n">
-        <v>2434.183678346854</v>
+        <v>1698.50962791956</v>
       </c>
     </row>
     <row r="45">
@@ -7703,40 +7703,40 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>941.5438544811095</v>
+        <v>941.5438544811091</v>
       </c>
       <c r="C45" t="n">
-        <v>767.0908251999825</v>
+        <v>767.0908251999821</v>
       </c>
       <c r="D45" t="n">
-        <v>618.1564155387314</v>
+        <v>618.1564155387309</v>
       </c>
       <c r="E45" t="n">
-        <v>458.9189605332758</v>
+        <v>458.9189605332754</v>
       </c>
       <c r="F45" t="n">
-        <v>312.3844025601609</v>
+        <v>312.3844025601604</v>
       </c>
       <c r="G45" t="n">
-        <v>176.0213023927789</v>
+        <v>176.0213023927783</v>
       </c>
       <c r="H45" t="n">
-        <v>85.51940803064583</v>
+        <v>85.51940803064585</v>
       </c>
       <c r="I45" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J45" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K45" t="n">
-        <v>398.4535849031484</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L45" t="n">
-        <v>765.1517452158141</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M45" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N45" t="n">
         <v>1685.951113992584</v>
@@ -7751,16 +7751,16 @@
         <v>2565.053542533342</v>
       </c>
       <c r="R45" t="n">
-        <v>2564.909189125858</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S45" t="n">
-        <v>2435.471302619338</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T45" t="n">
         <v>2242.828302297193</v>
       </c>
       <c r="U45" t="n">
-        <v>2014.760455431609</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V45" t="n">
         <v>1779.608347199866</v>
@@ -7772,7 +7772,7 @@
         <v>1317.519490266131</v>
       </c>
       <c r="Y45" t="n">
-        <v>1109.759191501178</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="46">
@@ -7782,43 +7782,43 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>627.8744564335971</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="C46" t="n">
-        <v>627.8744564335971</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="D46" t="n">
-        <v>477.7578170212613</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="E46" t="n">
-        <v>477.7578170212613</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="F46" t="n">
-        <v>477.7578170212613</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G46" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H46" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I46" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J46" t="n">
         <v>111.634748879119</v>
       </c>
       <c r="K46" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279955</v>
       </c>
       <c r="L46" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764916</v>
       </c>
       <c r="M46" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760407</v>
       </c>
       <c r="N46" t="n">
-        <v>1317.747152581905</v>
+        <v>1317.747152581906</v>
       </c>
       <c r="O46" t="n">
         <v>1617.076751502319</v>
@@ -7833,25 +7833,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S46" t="n">
-        <v>1735.608663915319</v>
+        <v>1735.60866391532</v>
       </c>
       <c r="T46" t="n">
-        <v>1513.842048484845</v>
+        <v>1513.842048484846</v>
       </c>
       <c r="U46" t="n">
         <v>1224.739181610489</v>
       </c>
       <c r="V46" t="n">
-        <v>1224.739181610489</v>
+        <v>970.0546934046023</v>
       </c>
       <c r="W46" t="n">
-        <v>935.322011573528</v>
+        <v>680.6375233676417</v>
       </c>
       <c r="X46" t="n">
-        <v>935.322011573528</v>
+        <v>452.6479724696244</v>
       </c>
       <c r="Y46" t="n">
-        <v>714.5294324299979</v>
+        <v>231.8553933260943</v>
       </c>
     </row>
   </sheetData>
@@ -8066,10 +8066,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>346.2692436516223</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451756</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
@@ -8294,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270195</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>90.64146763747122</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8452,7 +8452,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>169.0966151720736</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
         <v>324.1454125711647</v>
@@ -8461,7 +8461,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M8" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928324</v>
       </c>
       <c r="N8" t="n">
         <v>437.3469244119842</v>
@@ -8531,16 +8531,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270195</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>221.0467526719079</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>465.7050637499999</v>
+        <v>346.2692436516228</v>
       </c>
       <c r="N9" t="n">
         <v>479.3423743435536</v>
@@ -8765,16 +8765,16 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>10.12574714858493</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>15.31151794479052</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -8792,7 +8792,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>45.52166981132082</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9002,13 +9002,13 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>10.12574714858493</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>69.69946722152071</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9026,10 +9026,10 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>45.52166981132082</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -22555,10 +22555,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>81.3633939473973</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -22594,7 +22594,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>7.221478945514221</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
@@ -22609,13 +22609,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -22704,13 +22704,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>142.2251261757772</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -22719,7 +22719,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
         <v>156.1708888417951</v>
@@ -22728,7 +22728,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -22752,7 +22752,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -22761,13 +22761,13 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>157.4983735401874</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -22783,7 +22783,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -22792,16 +22792,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>138.2802218043508</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -22831,10 +22831,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
@@ -22843,13 +22843,13 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>33.70578886093688</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -22944,25 +22944,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>70.29918048095863</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>106.8644646478155</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J7" t="n">
         <v>45.19995918853701</v>
@@ -23004,7 +23004,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -23023,7 +23023,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -23032,13 +23032,13 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -23074,19 +23074,19 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>211.7784146948729</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>314.000389847404</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -23184,16 +23184,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>72.6705324754106</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
@@ -23232,16 +23232,16 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>104.7780420844848</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -23257,28 +23257,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>2.255751353299502</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>95.25399212655913</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>61.44749355031655</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23308,19 +23308,19 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T11" t="n">
-        <v>206.1742023667267</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>251.0364052149085</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -23424,19 +23424,19 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>30.68166329459044</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,19 +23463,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>99.32764374521085</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S13" t="n">
-        <v>193.7981713870603</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>220.5367941620016</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2244489913895</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>70.71644991356126</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -23494,16 +23494,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>36.78530491553568</v>
       </c>
       <c r="E14" t="n">
-        <v>90.88201011902709</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -23512,7 +23512,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>299.8862654257798</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23545,13 +23545,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>120.9327970537822</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T14" t="n">
-        <v>206.1742023667267</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U14" t="n">
-        <v>251.0364052149085</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -23560,7 +23560,7 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23652,16 +23652,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>128.135298055336</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -23673,7 +23673,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>103.3051669679944</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,28 +23700,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>99.32764374521086</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S16" t="n">
-        <v>193.7981713870603</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>220.5367941620016</v>
+        <v>101.2413468224328</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23737,19 +23737,19 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>209.4348714989691</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23785,16 +23785,16 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>331.8898480104186</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -23889,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>16.142136056966</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -23904,13 +23904,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H19" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I19" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23958,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>91.26811680410488</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -23968,10 +23968,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -23983,13 +23983,13 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>343.5923386966498</v>
       </c>
       <c r="H20" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24022,19 +24022,19 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>249.2766965295532</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -24126,16 +24126,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>71.72936453719979</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24186,10 +24186,10 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V22" t="n">
-        <v>152.1350798790568</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24208,19 +24208,19 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>321.7031528533606</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H23" t="n">
         <v>294.6077643873205</v>
@@ -24259,13 +24259,13 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>294.3692147095447</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -24372,7 +24372,7 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -24417,7 +24417,7 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T25" t="n">
-        <v>27.38138722868857</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>286.2118382056129</v>
@@ -24426,7 +24426,7 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>167.4704229187109</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24442,7 +24442,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>317.0092794716275</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -24451,19 +24451,19 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24493,25 +24493,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>179.3708969823697</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -24600,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -24612,10 +24612,10 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>144.7550149143208</v>
@@ -24654,22 +24654,22 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T28" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>214.5414662356956</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>56.27854221392971</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24679,7 +24679,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -24688,7 +24688,7 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>206.2431374333852</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
@@ -24697,10 +24697,10 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24736,13 +24736,13 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U29" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>154.5464881781091</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -24837,22 +24837,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>104.4219494721156</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>144.7550149143208</v>
@@ -24885,10 +24885,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>53.73645647354641</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24906,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -24916,7 +24916,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -24931,10 +24931,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>233.3151869051499</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -24985,7 +24985,7 @@
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>296.7574771839097</v>
       </c>
     </row>
     <row r="33">
@@ -25074,22 +25074,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>25.82611218385688</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>144.7550149143208</v>
@@ -25122,25 +25122,25 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>105.0742887270136</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25153,7 +25153,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>95.55323632905908</v>
+        <v>117.3988779157978</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -25162,16 +25162,16 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I35" t="n">
         <v>41.57692977292595</v>
@@ -25204,10 +25204,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -25222,7 +25222,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -25311,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -25323,13 +25323,13 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>37.86654093622715</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>96.35242040983809</v>
@@ -25365,7 +25365,7 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T37" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>286.2118382056129</v>
@@ -25374,10 +25374,10 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>142.049917578674</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25399,13 +25399,13 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>296.7574771839105</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>294.6077643873205</v>
@@ -25450,13 +25450,13 @@
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>55.63165131926473</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -25551,7 +25551,7 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -25596,28 +25596,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T40" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>235.2785570057217</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>154.8576191056865</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25627,16 +25627,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>159.6364462020388</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>53.44278321679036</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
@@ -25648,7 +25648,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I41" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25684,13 +25684,13 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U41" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -25785,28 +25785,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25839,10 +25839,10 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>201.6995902368609</v>
       </c>
       <c r="U43" t="n">
-        <v>236.4063148805593</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -25854,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -25864,7 +25864,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -25876,13 +25876,13 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>229.2695069934074</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H44" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -25915,25 +25915,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>222.7020862222421</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -26022,13 +26022,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>94.04355394550049</v>
+        <v>16.14213605696557</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -26037,13 +26037,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26082,13 +26082,13 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>793744.8013218085</v>
+        <v>793744.8013218084</v>
       </c>
     </row>
     <row r="4">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>789187.9600428648</v>
+        <v>857372.2991474008</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>789187.9600428648</v>
+        <v>857372.2991474007</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>857372.2991474005</v>
+        <v>857372.2991474004</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>857372.2991474004</v>
+        <v>857372.2991474005</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>857372.2991474008</v>
+        <v>857372.2991474005</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>857372.2991474004</v>
+        <v>857372.2991474007</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>857372.2991474003</v>
+        <v>857372.2991474005</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>857372.2991474008</v>
+        <v>857372.2991474007</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>857372.2991474004</v>
+        <v>857372.2991474007</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>857372.2991474004</v>
+        <v>857372.2991474007</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>857372.2991474007</v>
+        <v>857372.2991474005</v>
       </c>
     </row>
   </sheetData>
@@ -26313,7 +26313,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>289152.6100157575</v>
+        <v>289152.6100157574</v>
       </c>
       <c r="C2" t="n">
         <v>289152.6100157576</v>
@@ -26322,13 +26322,13 @@
         <v>289152.6100157576</v>
       </c>
       <c r="E2" t="n">
-        <v>312157.9037460884</v>
+        <v>340997.0989709208</v>
       </c>
       <c r="F2" t="n">
-        <v>312157.9037460886</v>
+        <v>340997.0989709207</v>
       </c>
       <c r="G2" t="n">
-        <v>340997.0989709207</v>
+        <v>340997.0989709204</v>
       </c>
       <c r="H2" t="n">
         <v>340997.0989709205</v>
@@ -26337,25 +26337,25 @@
         <v>340997.0989709206</v>
       </c>
       <c r="J2" t="n">
+        <v>340997.0989709207</v>
+      </c>
+      <c r="K2" t="n">
+        <v>340997.0989709206</v>
+      </c>
+      <c r="L2" t="n">
         <v>340997.0989709205</v>
       </c>
-      <c r="K2" t="n">
+      <c r="M2" t="n">
         <v>340997.0989709207</v>
       </c>
-      <c r="L2" t="n">
-        <v>340997.0989709206</v>
-      </c>
-      <c r="M2" t="n">
-        <v>340997.0989709205</v>
-      </c>
       <c r="N2" t="n">
-        <v>340997.0989709205</v>
+        <v>340997.0989709207</v>
       </c>
       <c r="O2" t="n">
-        <v>340997.0989709205</v>
+        <v>340997.0989709207</v>
       </c>
       <c r="P2" t="n">
-        <v>340997.0989709205</v>
+        <v>340997.0989709207</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,22 +26374,22 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>469045.4557502365</v>
+        <v>618960.315950354</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>142743.9810953024</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>1.741016149026109e-10</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925929</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,16 +26398,16 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>39153.48277254675</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>37809.68516836051</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>1.513344614068046e-10</v>
       </c>
     </row>
     <row r="4">
@@ -26426,13 +26426,13 @@
         <v>71376.38478147394</v>
       </c>
       <c r="E4" t="n">
-        <v>9332.459500253117</v>
+        <v>5500.795347005314</v>
       </c>
       <c r="F4" t="n">
-        <v>9332.459500253122</v>
+        <v>5500.795347005323</v>
       </c>
       <c r="G4" t="n">
-        <v>5500.795347005322</v>
+        <v>5500.795347005323</v>
       </c>
       <c r="H4" t="n">
         <v>5500.795347005323</v>
@@ -26478,25 +26478,25 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>61958.82776879413</v>
+        <v>74306.34056139331</v>
       </c>
       <c r="F5" t="n">
-        <v>61958.82776879413</v>
+        <v>74306.34056139331</v>
       </c>
       <c r="G5" t="n">
+        <v>74306.34056139328</v>
+      </c>
+      <c r="H5" t="n">
         <v>74306.3405613933</v>
       </c>
-      <c r="H5" t="n">
+      <c r="I5" t="n">
         <v>74306.34056139328</v>
       </c>
-      <c r="I5" t="n">
-        <v>74306.3405613933</v>
-      </c>
       <c r="J5" t="n">
-        <v>74306.3405613933</v>
+        <v>74306.34056139328</v>
       </c>
       <c r="K5" t="n">
-        <v>74306.3405613933</v>
+        <v>74306.34056139328</v>
       </c>
       <c r="L5" t="n">
         <v>74306.3405613933</v>
@@ -26508,10 +26508,10 @@
         <v>74306.3405613933</v>
       </c>
       <c r="O5" t="n">
-        <v>74306.34056139328</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="P5" t="n">
-        <v>74306.3405613933</v>
+        <v>74306.34056139331</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-455050.7320436704</v>
+        <v>-461119.1457894898</v>
       </c>
       <c r="C6" t="n">
-        <v>134917.1471708741</v>
+        <v>128848.7334250549</v>
       </c>
       <c r="D6" t="n">
-        <v>134917.1471708742</v>
+        <v>128848.7334250549</v>
       </c>
       <c r="E6" t="n">
-        <v>-228178.8392731952</v>
+        <v>-361246.5421858928</v>
       </c>
       <c r="F6" t="n">
-        <v>240866.6164770413</v>
+        <v>257713.773764461</v>
       </c>
       <c r="G6" t="n">
-        <v>118445.9819672196</v>
+        <v>257713.7737644611</v>
       </c>
       <c r="H6" t="n">
-        <v>261189.9630625218</v>
+        <v>257713.7737644609</v>
       </c>
       <c r="I6" t="n">
-        <v>261189.963062522</v>
+        <v>257713.773764461</v>
       </c>
       <c r="J6" t="n">
-        <v>84766.74386992902</v>
+        <v>81290.5545718681</v>
       </c>
       <c r="K6" t="n">
-        <v>261189.9630625221</v>
+        <v>257713.773764461</v>
       </c>
       <c r="L6" t="n">
-        <v>261189.963062522</v>
+        <v>257713.7737644609</v>
       </c>
       <c r="M6" t="n">
-        <v>261189.9630625219</v>
+        <v>218560.2909919143</v>
       </c>
       <c r="N6" t="n">
-        <v>261189.9630625219</v>
+        <v>257713.773764461</v>
       </c>
       <c r="O6" t="n">
-        <v>223380.2778941614</v>
+        <v>257713.7737644612</v>
       </c>
       <c r="P6" t="n">
-        <v>261189.9630625219</v>
+        <v>257713.7737644608</v>
       </c>
     </row>
   </sheetData>
@@ -26737,7 +26737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170866</v>
@@ -26746,10 +26746,10 @@
         <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>961.5670451980344</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="F3" t="n">
-        <v>961.5670451980343</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="G3" t="n">
         <v>1089.776700593298</v>
@@ -26779,7 +26779,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="P3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
     </row>
     <row r="4">
@@ -26798,40 +26798,40 @@
         <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
-        <v>674.2872727545556</v>
+        <v>831.401455402293</v>
       </c>
       <c r="F4" t="n">
-        <v>674.2872727545557</v>
+        <v>831.401455402293</v>
       </c>
       <c r="G4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="H4" t="n">
+        <v>831.4014554022928</v>
+      </c>
+      <c r="I4" t="n">
         <v>831.4014554022925</v>
       </c>
-      <c r="I4" t="n">
+      <c r="J4" t="n">
+        <v>831.4014554022925</v>
+      </c>
+      <c r="K4" t="n">
+        <v>831.4014554022925</v>
+      </c>
+      <c r="L4" t="n">
         <v>831.4014554022929</v>
-      </c>
-      <c r="J4" t="n">
-        <v>831.4014554022926</v>
-      </c>
-      <c r="K4" t="n">
-        <v>831.4014554022928</v>
-      </c>
-      <c r="L4" t="n">
-        <v>831.4014554022928</v>
       </c>
       <c r="M4" t="n">
         <v>831.4014554022929</v>
       </c>
       <c r="N4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="O4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="P4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
     </row>
   </sheetData>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26968,40 +26968,40 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>583.8233809809478</v>
+        <v>712.033036376212</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>128.2096553952638</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
         <v>2.273736754432321e-13</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27020,13 +27020,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>157.1141826477374</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>157.1141826477369</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545554</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,13 +27044,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>157.1141826477374</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>157.1141826477368</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27266,13 +27266,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>157.1141826477374</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>157.1141826477369</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -31047,19 +31047,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31074,13 +31074,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31147,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31223,16 +31223,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.865596161600136</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H11" t="n">
-        <v>39.5885366899874</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I11" t="n">
-        <v>149.0283960200894</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J11" t="n">
-        <v>328.0876422206098</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K11" t="n">
-        <v>491.7183277411436</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L11" t="n">
-        <v>610.0200662717139</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M11" t="n">
-        <v>678.7648620105703</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N11" t="n">
-        <v>689.7479871047167</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O11" t="n">
-        <v>651.3094652728054</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P11" t="n">
-        <v>555.8775600333018</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q11" t="n">
-        <v>417.4408974959969</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R11" t="n">
-        <v>242.8222548861147</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S11" t="n">
-        <v>88.08727253246317</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T11" t="n">
-        <v>16.9216471974046</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3092476929280107</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.068276285897659</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H12" t="n">
-        <v>19.97519465590634</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I12" t="n">
-        <v>71.21038966796765</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J12" t="n">
-        <v>195.4067520812345</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K12" t="n">
-        <v>333.9812632363777</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L12" t="n">
-        <v>449.0790242691386</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M12" t="n">
-        <v>524.0540396329287</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N12" t="n">
-        <v>537.9241906905495</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O12" t="n">
-        <v>492.0955424609224</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P12" t="n">
-        <v>394.9500567342644</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q12" t="n">
-        <v>264.0136536173924</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R12" t="n">
-        <v>128.4145574700319</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S12" t="n">
-        <v>38.41732487182711</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T12" t="n">
-        <v>8.336604854122578</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1360708082827408</v>
+        <v>0.1542136840462215</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.733973360193177</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H13" t="n">
-        <v>15.41659951153571</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I13" t="n">
-        <v>52.14530795926391</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J13" t="n">
-        <v>122.5919165656576</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K13" t="n">
-        <v>201.4561776660799</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L13" t="n">
-        <v>257.7945484781747</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M13" t="n">
-        <v>271.8082059073722</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N13" t="n">
-        <v>265.3452142921069</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O13" t="n">
-        <v>245.0892527662138</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P13" t="n">
-        <v>209.7161962182728</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q13" t="n">
-        <v>145.1966238249032</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R13" t="n">
-        <v>77.96574763195864</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S13" t="n">
-        <v>30.21842664991199</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T13" t="n">
-        <v>7.408795266279935</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U13" t="n">
-        <v>0.0945803651014461</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.865596161600135</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H14" t="n">
-        <v>39.58853668998739</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I14" t="n">
-        <v>149.0283960200894</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J14" t="n">
-        <v>328.0876422206098</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K14" t="n">
-        <v>491.7183277411436</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L14" t="n">
-        <v>610.0200662717139</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M14" t="n">
-        <v>678.7648620105701</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N14" t="n">
-        <v>689.7479871047167</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O14" t="n">
-        <v>651.3094652728053</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P14" t="n">
-        <v>555.8775600333018</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q14" t="n">
-        <v>417.4408974959969</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R14" t="n">
-        <v>242.8222548861147</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S14" t="n">
-        <v>88.08727253246316</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T14" t="n">
-        <v>16.9216471974046</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U14" t="n">
-        <v>0.3092476929280107</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.068276285897659</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H15" t="n">
-        <v>19.97519465590634</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I15" t="n">
-        <v>71.21038966796765</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J15" t="n">
-        <v>195.4067520812345</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K15" t="n">
-        <v>333.9812632363776</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L15" t="n">
-        <v>449.0790242691386</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M15" t="n">
-        <v>524.0540396329286</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N15" t="n">
-        <v>537.9241906905494</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O15" t="n">
-        <v>492.0955424609223</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P15" t="n">
-        <v>394.9500567342644</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q15" t="n">
-        <v>264.0136536173924</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R15" t="n">
-        <v>128.4145574700319</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S15" t="n">
-        <v>38.4173248718271</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T15" t="n">
-        <v>8.336604854122577</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1360708082827408</v>
+        <v>0.1542136840462215</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.733973360193176</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H16" t="n">
-        <v>15.41659951153571</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I16" t="n">
-        <v>52.1453079592639</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J16" t="n">
-        <v>122.5919165656576</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K16" t="n">
-        <v>201.4561776660799</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L16" t="n">
-        <v>257.7945484781746</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M16" t="n">
-        <v>271.8082059073722</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N16" t="n">
-        <v>265.3452142921069</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O16" t="n">
-        <v>245.0892527662138</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P16" t="n">
-        <v>209.7161962182728</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q16" t="n">
-        <v>145.1966238249032</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R16" t="n">
-        <v>77.96574763195862</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S16" t="n">
-        <v>30.21842664991198</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T16" t="n">
-        <v>7.408795266279934</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U16" t="n">
-        <v>0.0945803651014461</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,43 +32226,43 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H17" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I17" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J17" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K17" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L17" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M17" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N17" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O17" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P17" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q17" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R17" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S17" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T17" t="n">
         <v>19.1778794245112</v>
@@ -32311,40 +32311,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I18" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J18" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K18" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L18" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M18" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N18" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O18" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P18" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q18" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R18" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S18" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T18" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U18" t="n">
         <v>0.1542136840462215</v>
@@ -32384,13 +32384,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H19" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I19" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J19" t="n">
         <v>138.937596729739</v>
@@ -32399,16 +32399,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L19" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M19" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N19" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O19" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P19" t="n">
         <v>237.6785118802169</v>
@@ -32417,16 +32417,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R19" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S19" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T19" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32788,7 +32788,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J24" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026436</v>
       </c>
       <c r="K24" t="n">
         <v>378.5123470353157</v>
@@ -33262,7 +33262,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J30" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026436</v>
       </c>
       <c r="K30" t="n">
         <v>378.5123470353157</v>
@@ -33736,7 +33736,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J36" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026436</v>
       </c>
       <c r="K36" t="n">
         <v>378.5123470353157</v>
@@ -33973,7 +33973,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J39" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026436</v>
       </c>
       <c r="K39" t="n">
         <v>378.5123470353157</v>
@@ -34210,7 +34210,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J42" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026436</v>
       </c>
       <c r="K42" t="n">
         <v>378.5123470353157</v>
@@ -34359,7 +34359,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H44" t="n">
         <v>44.86703772844668</v>
@@ -34368,40 +34368,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J44" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K44" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L44" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M44" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N44" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O44" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P44" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q44" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R44" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S44" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T44" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U44" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,46 +34438,46 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H45" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I45" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J45" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K45" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L45" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M45" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N45" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O45" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P45" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q45" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R45" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S45" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T45" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U45" t="n">
         <v>0.1542136840462215</v>
@@ -34520,43 +34520,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H46" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I46" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J46" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K46" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L46" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M46" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N46" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O46" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P46" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q46" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R46" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S46" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T46" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U46" t="n">
         <v>0.1071911508780295</v>
@@ -34698,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34777,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34786,16 +34786,16 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M3" t="n">
-        <v>410.0055067279162</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355123</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -35014,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770689</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35035,7 +35035,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>54.37527471535621</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35172,7 +35172,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181308</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
         <v>297.2230414343419</v>
@@ -35181,7 +35181,7 @@
         <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060963</v>
       </c>
       <c r="N8" t="n">
         <v>478.8956552492236</v>
@@ -35251,16 +35251,16 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K9" t="n">
-        <v>214.4070918624591</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
         <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262938</v>
+        <v>410.0055067279167</v>
       </c>
       <c r="N9" t="n">
         <v>559.3197334338902</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>147.0417376939235</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K11" t="n">
-        <v>271.6284766961631</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L11" t="n">
-        <v>374.2536513017266</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M11" t="n">
-        <v>448.4186287832975</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N11" t="n">
-        <v>460.3349235081258</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O11" t="n">
-        <v>421.2112538511186</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P11" t="n">
-        <v>324.6445642780323</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q11" t="n">
-        <v>195.1352076215474</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R11" t="n">
-        <v>27.23671707198258</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,31 +35488,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>194.6601607549767</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K12" t="n">
-        <v>460.6050612745973</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L12" t="n">
-        <v>325.836162434055</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M12" t="n">
-        <v>381.9200057109104</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N12" t="n">
-        <v>406.5824786072162</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O12" t="n">
-        <v>349.499298016478</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P12" t="n">
-        <v>260.9756493199342</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q12" t="n">
-        <v>124.0318795313709</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R12" t="n">
-        <v>28.25672331738876</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>29.23273644898481</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K13" t="n">
-        <v>179.1866858401971</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L13" t="n">
-        <v>285.3845737384909</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M13" t="n">
-        <v>311.3920828692128</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N13" t="n">
-        <v>309.4773866713355</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O13" t="n">
-        <v>269.6743806802535</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P13" t="n">
-        <v>206.9947554831663</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q13" t="n">
-        <v>59.0345805732088</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>147.0417376939235</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K14" t="n">
-        <v>271.628476696163</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L14" t="n">
-        <v>374.2536513017266</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M14" t="n">
-        <v>448.4186287832974</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N14" t="n">
-        <v>460.3349235081258</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O14" t="n">
-        <v>421.2112538511185</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P14" t="n">
-        <v>324.6445642780323</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q14" t="n">
-        <v>195.1352076215474</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R14" t="n">
-        <v>27.23671707198255</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,31 +35725,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>194.6601607549767</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K15" t="n">
-        <v>265.8392914835393</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L15" t="n">
-        <v>310.5246444892645</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M15" t="n">
-        <v>381.9200057109103</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N15" t="n">
-        <v>406.5824786072161</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O15" t="n">
-        <v>349.4992980164779</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P15" t="n">
-        <v>260.9756493199341</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q15" t="n">
-        <v>334.10916726722</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R15" t="n">
-        <v>28.25672331738873</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>29.2327364489848</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K16" t="n">
-        <v>179.186685840197</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L16" t="n">
-        <v>285.3845737384908</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M16" t="n">
-        <v>311.3920828692127</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N16" t="n">
-        <v>309.4773866713355</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O16" t="n">
-        <v>269.6743806802535</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P16" t="n">
-        <v>206.9947554831663</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q16" t="n">
-        <v>59.0345805732088</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K17" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L17" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M17" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N17" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O17" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P17" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q17" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R17" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K18" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L18" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M18" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N18" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O18" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P18" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q18" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,10 +36041,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K19" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L19" t="n">
         <v>319.7573721701981</v>
@@ -36056,13 +36056,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O19" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P19" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q19" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36436,7 +36436,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597693</v>
       </c>
       <c r="K24" t="n">
         <v>240.6709080609567</v>
@@ -36910,7 +36910,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597693</v>
       </c>
       <c r="K30" t="n">
         <v>240.6709080609567</v>
@@ -37071,7 +37071,7 @@
         <v>190.7870009687126</v>
       </c>
       <c r="K32" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L32" t="n">
         <v>455.5901143923322</v>
@@ -37384,7 +37384,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597691</v>
       </c>
       <c r="K36" t="n">
         <v>240.6709080609567</v>
@@ -37621,7 +37621,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597691</v>
       </c>
       <c r="K39" t="n">
         <v>240.6709080609567</v>
@@ -37858,7 +37858,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597691</v>
       </c>
       <c r="K42" t="n">
         <v>240.6709080609567</v>
@@ -38016,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K44" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L44" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M44" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N44" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O44" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P44" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q44" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R44" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38095,25 +38095,25 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K45" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L45" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M45" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N45" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O45" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P45" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q45" t="n">
         <v>159.2338966127272</v>
@@ -38174,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K46" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L46" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M46" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N46" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O46" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P46" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q46" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
